--- a/Klasy-PP.xlsx
+++ b/Klasy-PP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB5546A-15FD-449D-8323-FC3D0A5923F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70070D57-04C5-46EB-A1AB-9168A279AB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
   <si>
     <t>CK1125</t>
   </si>
@@ -311,10 +311,40 @@
     <t>Łączna liczba PP</t>
   </si>
   <si>
-    <t>Profil</t>
-  </si>
-  <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Taryfa</t>
+  </si>
+  <si>
+    <t>O180,O181,O182,O183,O184</t>
+  </si>
+  <si>
+    <t>O380,O381,O382,O383,O384</t>
+  </si>
+  <si>
+    <t>O480,O481,O482,O483,O484</t>
+  </si>
+  <si>
+    <t>O580,O581,O582,O583,O584</t>
+  </si>
+  <si>
+    <t>O680,O681,O682,O683,O684</t>
+  </si>
+  <si>
+    <t>O780,O781,O782,O783,O784</t>
+  </si>
+  <si>
+    <t>O880,O881,O882,O883,O884</t>
+  </si>
+  <si>
+    <t>O160</t>
+  </si>
+  <si>
+    <t>O280,O281,O282,O283,O284</t>
+  </si>
+  <si>
+    <t>O8381,O8382,O8383,O8384,O8385,O8386</t>
   </si>
 </sst>
 </file>
@@ -387,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,6 +430,9 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,12 +717,13 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
     <col min="11" max="11" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,7 +786,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
@@ -761,10 +795,10 @@
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>69</v>
@@ -795,6 +829,10 @@
       <c r="G4" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
@@ -819,6 +857,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
@@ -1109,6 +1150,9 @@
       <c r="G18" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="I18" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="K18" t="s">
         <v>31</v>
       </c>
@@ -1227,6 +1271,9 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
       <c r="K23" t="s">
         <v>41</v>
       </c>
@@ -1305,6 +1352,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
+      <c r="I27" t="s">
+        <v>78</v>
+      </c>
       <c r="J27" t="s">
         <v>8</v>
       </c>
@@ -1326,6 +1376,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
       <c r="J28" t="s">
         <v>8</v>
       </c>
@@ -1347,6 +1400,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
       <c r="J29" t="s">
         <v>8</v>
       </c>
@@ -1368,6 +1424,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
+      <c r="I30" t="s">
+        <v>81</v>
+      </c>
       <c r="J30" t="s">
         <v>8</v>
       </c>
@@ -1387,6 +1446,9 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
+      <c r="I31" t="s">
+        <v>76</v>
+      </c>
       <c r="J31" t="s">
         <v>8</v>
       </c>
@@ -1406,6 +1468,9 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
       <c r="J32" t="s">
         <v>8</v>
       </c>
